--- a/Tool/MasterConverter/MasterData/Test.xlsx
+++ b/Tool/MasterConverter/MasterData/Test.xlsx
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hp</t>
   </si>
   <si>
@@ -37,10 +40,19 @@
     <t xml:space="preserve">u32</t>
   </si>
   <si>
+    <t xml:space="preserve">string</t>
+  </si>
+  <si>
     <t xml:space="preserve">s32</t>
   </si>
   <si>
     <t xml:space="preserve">$ITEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test2</t>
   </si>
 </sst>
 </file>
@@ -154,10 +166,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -170,6 +182,7 @@
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
@@ -179,42 +192,51 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>3</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="E4" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="F4" s="0" t="n">
         <v>30</v>
       </c>
     </row>
@@ -222,13 +244,16 @@
       <c r="B5" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="E5" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="F5" s="0" t="n">
         <v>60</v>
       </c>
     </row>

--- a/Tool/MasterConverter/MasterData/Test.xlsx
+++ b/Tool/MasterConverter/MasterData/Test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t xml:space="preserve">Test2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test3</t>
   </si>
 </sst>
 </file>
@@ -166,10 +169,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -257,6 +260,23 @@
         <v>60</v>
       </c>
     </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
